--- a/src/test/resources/KT_B4_DDF_test.xlsx
+++ b/src/test/resources/KT_B4_DDF_test.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tosun\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\IdeaProjects\B4_CucumberSelenium_YA\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC3561A6-53F0-4B6F-BF07-6F1E7E8D524E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11295"/>
   </bookViews>
   <sheets>
     <sheet name="QA 1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>username</t>
   </si>
@@ -57,9 +56,6 @@
     <t>mike1234</t>
   </si>
   <si>
-    <t>Developer</t>
-  </si>
-  <si>
     <t>mike</t>
   </si>
   <si>
@@ -81,9 +77,6 @@
     <t>eddiem12</t>
   </si>
   <si>
-    <t>Senior Developer</t>
-  </si>
-  <si>
     <t>Eddie Murphy</t>
   </si>
   <si>
@@ -97,12 +90,15 @@
   </si>
   <si>
     <t>Kyle Masters</t>
+  </si>
+  <si>
+    <t>QA Test Engineer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7">
     <font>
       <sz val="11"/>
@@ -458,11 +454,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -509,52 +505,52 @@
         <v>9</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="D6" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:4">
